--- a/TokenService/bin/Debug/file/ExportExcelCSR.xlsx
+++ b/TokenService/bin/Debug/file/ExportExcelCSR.xlsx
@@ -1,63 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBILE ID\HoTroKH_TichHopRSSP\DesktopApplicationTool\DesktopApp\TokenService\bin\Debug\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="ToolResult" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cert Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cipher Hash</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Csr</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Cert Chain</t>
+  </si>
+  <si>
+    <t>Cipher Hash</t>
   </si>
   <si>
     <t xml:space="preserve">-----BEGIN CERTIFICATE REQUEST-----
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBBMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEApX+HsEVZiHVRQoLnpuTZFzOgLrzdEjHfFihPTygYWji6
-PMpX3FVXzEWY10tkOKSy5Wjo5coHa7rcq0Wq1kzvHPw9J2Hm/MmsS6hT9/C4zx90
-kHcxzKY+Dhz0tRMqyjWTt1KK+XMWIJDABovNmgATgBQl8E63dHzq6bHUB3WhqJ2G
-t+nMp5Ix6Jm+VwPe4PRQwOPAuloSHG77q52/vEL+QdW2rYTSAF1eI3XzkeGs2nB9
-lQ5hK+Jr9SfdDabpZFwSL3VxAdWYjKPmtUghoHkqROEQXgIPmXl1cQhsPQZtAsEz
-A6sIBiwhBT5sEmFWpWroYNkhywQOIkNnatthNDdAMwIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQACPqJrHUWPaFX7vD7YVz5xdHzss5l3NCo4qBh0DFmNyO9IBoOZpvlF
-7LPKKSThcQY4T4kIvgWs/w7HfyZW2N6G5R4VstHthwC11+YjjDcTCL727ruz5skb
-ZjLT7a82+hjIap+ENNj7eS5K1ggRZktChfD/hOS2Ppm/FAB234ehD+MDdmKJNiQn
-Iiso8igiRA09UYjzysnsZop0/jh03OPX1Deg1AWjV36ORG+NORJjgrC7Q93x06Kg
-TdWXKnjq8HS/ykcYnWxqMSNkETmpsm4KvunHrRhflRDs2VsNx+73rBQ/3wViSqxD
-Uh02iqti3Tt/ie5D2kvY5dWxeoRx0d4s
+AAOCAQ8AMIIBCgKCAQEAn/a6l4QXTdq+EGrirwDj74IVL6b6nuxEF4KuaGwClAJd
+E5c0dEk2mWBoDfTRZWsOeXQQos8HMRRR3DLhqCPnsOVtoqCX4evHivJC9yc7LF7B
+xNg+7IhQc7d7YoRC+CoaixI3vIIohg1Jy5DFw/iOWHrxv8Avzq3/u2XDDKc2lKya
+U+E2xWEJ0vxZ++hSXqbpKvYZ6LrJk4yxEhxVYDfcIU5l9vDwpGpGFHxofRd25rLM
+s4tVNwGM/4yHRBKQM3JWMC7/zZUskhLpWk3NexwVy5glhRU2KIKlm+gAZ2p4GgjW
+DyMc+qlTEqGK8LnyJL9spMjzrbl1wDBqRPSYOs8rxwIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBWaqw3mEPsE23Csq8+aQzkC9U1DCRJqwx8MitPuRdHBOaAC873NPJ+
+z649bW1puNs40NsExTN658wULqy9mJxaLOj2RS7509s40kIFbopqIFqXN80leX8m
+dI1S2lVJzZdaPeI60LzsfCqe33STuDGJGSm7Zl+aIK3ey7iowWAmzT9GC62o+lRU
+IJEjrvJKI0JNLqVk2xsFGZsmk3j/5UAaDzPd3k8n9HOc6vJ33jgXwkoBqujYE0ci
+guihBqwVBi4Rx9p2YCP+EFtohUKcThAK8OF/GzO46/jUYVGsNLvV6wZ9qiyKc4V1
+hft9OrYXJXcdtEcPGOPki33TGRIUB7Hb
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">"-----BEGIN CERTIFICATE REQUEST-----
+MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBBMRQwEgYDVQQLDAtD
+b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
+DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
+AAOCAQ8AMIIBCgKCAQEAn/a6l4QXTdq+EGrirwDj74IVL6b6nuxEF4KuaGwClAJd
+E5c0dEk2mWBoDfTRZWsOeXQQos8HMRRR3DLhqCPnsOVtoqCX4evHivJC9yc7LF7B
+xNg+7IhQc7d7YoRC+CoaixI3vIIohg1Jy5DFw/iOWHrxv8Avzq3/u2XDDKc2lKya
+U+E2xWEJ0vxZ++hSXqbpKvYZ6LrJk4yxEhxVYDfcIU5l9vDwpGpGFHxofRd25rLM
+s4tVNwGM/4yHRBKQM3JWMC7/zZUskhLpWk3NexwVy5glhRU2KIKlm+gAZ2p4GgjW
+DyMc+qlTEqGK8LnyJL9spMjzrbl1wDBqRPSYOs8rxwIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBWaqw3mEPsE23Csq8+aQzkC9U1DCRJqwx8MitPuRdHBOaAC873NPJ+
+z649bW1puNs40NsExTN658wULqy9mJxaLOj2RS7509s40kIFbopqIFqXN80leX8m
+dI1S2lVJzZdaPeI60LzsfCqe33STuDGJGSm7Zl+aIK3ey7iowWAmzT9GC62o+lRU
+IJEjrvJKI0JNLqVk2xsFGZsmk3j/5UAaDzPd3k8n9HOc6vJ33jgXwkoBqujYE0ci
+guihBqwVBi4Rx9p2YCP+EFtohUKcThAK8OF/GzO46/jUYVGsNLvV6wZ9qiyKc4V1
+hft9OrYXJXcdtEcPGOPki33TGRIUB7Hb
+-----END CERTIFICATE REQUEST-----"
+</t>
+  </si>
+  <si>
+    <t>"                                -----BEGIN CERTIFICATE-----
+MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMC
+Vk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFA
+MD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9p
+bnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBE
+ZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAX
+DTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4x
+FDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4G
+A1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQg
+U3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBh
+cnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjAN
+BgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bT
+i+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69Ux
+gF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRp
+EMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIz
+QLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemm
+spm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/L
+FKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz
+5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29s
+BxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3K
+t+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOB
+tX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/Xy
+XHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU
+82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1Zt
+Dh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7
+PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILN
+Vk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaV
+azFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMk
+gBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrG
+Sr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRi
+eOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/
+0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJ
+qX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+C
+z4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSl
+DP5a57cb6mHYvOF8ygSobADyNeQ1jkjg
+-----END CERTIFICATE-----
+                            "</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -71,7 +136,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,26 +149,308 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.0625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -120,24 +467,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -154,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -171,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>

--- a/TokenService/bin/Debug/file/ExportExcelCSR.xlsx
+++ b/TokenService/bin/Debug/file/ExportExcelCSR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -26,25 +26,25 @@
     <t xml:space="preserve">Cert Chain</t>
   </si>
   <si>
-    <t xml:space="preserve">Cipher Hash</t>
+    <t xml:space="preserve">Cipher</t>
   </si>
   <si>
     <t xml:space="preserve">-----BEGIN CERTIFICATE REQUEST-----
-MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBBMRQwEgYDVQQLDAtD
+MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEA6sMQ9LHzCUeLZimnfGppnnw83WT9t63PSXhpZ4Ke7ESI
-vTc5cVYbjnkvOZK+BSCvMSfLy3XmTuYOTe9Rk3oFL/gPyvbhWiSPlkqEKeYRKNve
-XmEs20n+7tAz5i7D9NP4M3nRFLJ4BHGsUVpkC1mD6j/WK+kdID17Dnac9a49Duxn
-n15Nbt+t5vnbNbRpZLX38YHQvP4uJ9b6W62hhl0KFzS9pLxvu+cmEwWTeo7oF3M/
-xRxBRXoxxdhGDYe41/VihoW3lXNBe/PbpgkZEjjFk6C+B3OSrtHrALtHK/t8+qJQ
-5qXeJRHe7kzYU9+vPA68uch2F6Tara6sLkeLkO/ukwIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQAYjGzfn4zWmGNQ7TT6lkPLCmC5MVka/VJHAC9OZjmFWnozbbD4Vpdx
-IOztsIZDXHSrfT3Nx4SpBMduoiRvSjAFSW1O0sUoAzjyrm8S4js49ywnZHxoy9Ll
-Zgla7NVQh1O4I39rHiAMS0dB+2ZqaYrRNaF3FB6OFtDX/YcnnLoTBNB95VGUZqoo
-I2k7RpqXcBe3IfOJPHW8aGt6IFrF24F0ZKHVYOCGgBwEO5v+f4DiRDEg79w4UBlX
-Gj78Awx03wysmSjjPdWdiUFdF9Cp11nJlDQ63ne36XCkF+4w/lE9C1QfqN/vXvPk
-pWkrXMnQfPyiiVadaeHhAjSuOaZV1fo3
+AAOCAQ8AMIIBCgKCAQEAi5DF71dEIspBEWuKrcD8ImLGhxbSUMdJ1/O6raN4UVB5
+o/ifb+UKf5qXGpDc8Nkz3N90H9SAHWYhWiVwej+IIB6D/iCqMj4kuUsuT1QqwNLg
+lENKmpQPTTA3bWFYbYCofwGzz4uJqLJnk3Jh0a7Vymw3h9yLOHNUinWondDvUO/q
+XxwkvdIgSY0CpoPiayLshkujG2xQucIhIPCCXEqYg3BYiBL899Y3kkHzFMAfahzo
+8+5dLMDF9Njp84ImaWMO52n0sV6IXgIuDcla2sBvEwqnCMB5SCmyj36ricQ0igXt
+nHc03aKexxWp8M8/Cdpq0pPowt1EYIMN6Q9f6E2sDQIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBjnWsUfWHLf+GehOW/koY4dvE9mguvmK+nk9UZE8H1IhB1Yu6d+NbO
+h2DEHZ/2C5SDtRV64a3YtgzhyPbFmSEccbwrvI4aR2JxA0BWciNYbG5TjZCGxWmC
+eaI9RxSUkh6yiHmRyol1NuGj9ZloohEpxpG4mT2TX5Or20t6uC6Gqm+oA64wLhV3
+rA6Gl7JVQP6wwHLmGh+mGWL/26G3OZbCWCGHjPeEp/tqtS3VhwOlds3pCNa8xZE6
+Q/8SW3iMpzWMEDyEFDJICHiiwUVGMEMVUVIdKoRCOr579hzau7SZqSffGJIJ6znS
+KY6t9GIooGBvPE6oPSDS8MkCyKPSbxY0
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
@@ -137,9 +137,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3">
@@ -154,9 +152,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4">
@@ -171,9 +167,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5">
@@ -188,9 +182,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
